--- a/tests/test_uncertainty_databook.xlsx
+++ b/tests/test_uncertainty_databook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA3DDB-50F3-40CB-A622-81D1855FF50C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA4E18-EA1C-4C97-BD42-FDF6EE149140}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="20925" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -689,6 +690,9 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
   </si>
 </sst>
 </file>
@@ -780,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,10 +1734,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1745,7 @@
     <col min="1" max="1" width="68.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,7 +2496,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2530,7 +2535,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2548,7 +2553,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2566,7 +2571,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2584,7 +2589,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>24</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2623,7 +2628,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2641,7 +2646,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2659,7 +2664,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2677,98 +2682,113 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1">
         <v>2016</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>2017</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>0.05</v>
+      </c>
+      <c r="C62" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>0.16</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>0.05</v>
+      </c>
+      <c r="C63" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>0.16</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>0.05</v>
+      </c>
+      <c r="C64" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="4">
+      <c r="D64" s="4">
         <v>0.16</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>0.05</v>
+      </c>
+      <c r="C65" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>0.16</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -3075,36 +3095,36 @@
       <formula>AND(COUNTIF(E59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="11" priority="81">
-      <formula>COUNTIF(E62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F62:H62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="82">
-      <formula>AND(COUNTIF(E62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+      <formula>AND(COUNTIF(F62:H62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="9" priority="83">
-      <formula>COUNTIF(E63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F63:H63,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="84">
-      <formula>AND(COUNTIF(E63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+      <formula>AND(COUNTIF(F63:H63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="7" priority="85">
-      <formula>COUNTIF(E64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F64:H64,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="86">
-      <formula>AND(COUNTIF(E64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+      <formula>AND(COUNTIF(F64:H64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="5" priority="87">
-      <formula>COUNTIF(E65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F65:H65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="88">
-      <formula>AND(COUNTIF(E65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
+      <formula>AND(COUNTIF(F65:H65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
@@ -3127,7 +3147,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B50:B53" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C62:C65 B50:B53" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"probability"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56:B59" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -3135,6 +3155,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/test_uncertainty_databook.xlsx
+++ b/tests/test_uncertainty_databook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA4E18-EA1C-4C97-BD42-FDF6EE149140}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB24A80-433A-4C8B-BA96-4857BF854349}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="20925" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1736,8 +1736,8 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1748,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -1787,7 +1787,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -1805,7 +1805,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -1823,7 +1823,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -1841,100 +1841,115 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>2016</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2017</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
         <v>214</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
         <v>483</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
         <v>507</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
         <v>1073</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -1973,7 +1988,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -1991,7 +2006,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2791,20 +2806,20 @@
       <c r="H65" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" dxfId="87" priority="13">
-      <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="86" priority="14">
-      <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>AND(COUNTIF(F10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="85" priority="15">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="84" priority="16">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+      <formula>AND(COUNTIF(F11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
@@ -3127,24 +3142,24 @@
       <formula>AND(COUNTIF(F65:H65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" dxfId="3" priority="9">
-      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+      <formula>AND(COUNTIF(F8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+      <formula>AND(COUNTIF(F9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 C8:C11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C62:C65 B50:B53" xr:uid="{00000000-0002-0000-0100-000001000000}">
